--- a/학습자료/단답형/객관식_영어_복습_목적어 유형.xlsx
+++ b/학습자료/단답형/객관식_영어_복습_목적어 유형.xlsx
@@ -448,52 +448,52 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>want 원하다
-1. to 부정사
-2. 동명사 / to 부정사
-3. 동명사</t>
+          <t>want : 원하다 (목적어 유형)
+1. 동명사
+2. 동명사 / to 부정사
+3. to 부정사</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1, to 부정사</t>
+          <t>3, to 부정사</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>hope 희망하다
-1. 동명사
-2. to 부정사
-3. 동명사 / to 부정사</t>
+          <t>hope : 희망하다 (목적어 유형)
+1. 동명사
+2. 동명사 / to 부정사
+3. to 부정사</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2, to 부정사</t>
+          <t>3, to 부정사</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>attempt 시도하다
-1. 동명사
-2. 동명사 / to 부정사
-3. to 부정사</t>
+          <t>attempt : 시도하다 (목적어 유형)
+1. 동명사
+2. to 부정사
+3. 동명사 / to 부정사</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3, to 부정사</t>
+          <t>2, to 부정사</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>threaten 위협하다
+          <t>threaten : 위협하다 (목적어 유형)
 1. 동명사 / to 부정사
 2. 동명사
 3. to 부정사</t>
@@ -508,7 +508,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>choose 선택하다
+          <t>choose : 선택하다 (목적어 유형)
 1. to 부정사
 2. 동명사 / to 부정사
 3. 동명사</t>
@@ -523,40 +523,40 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>agree 동의하다
-1. 동명사
-2. to 부정사
+          <t>agree : 동의하다 (목적어 유형)
+1. to 부정사
+2. 동명사
 3. 동명사 / to 부정사</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2, to 부정사</t>
+          <t>1, to 부정사</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>need 필요로 하다
-1. 동명사 / to 부정사
-2. 동명사
-3. to 부정사</t>
+          <t>need : 필요로 하다 (목적어 유형)
+1. to 부정사
+2. 동명사
+3. 동명사 / to 부정사</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3, to 부정사</t>
+          <t>1, to 부정사</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>desire 바라다
-1. 동명사
-2. to 부정사
-3. 동명사 / to 부정사</t>
+          <t>desire : 바라다 (목적어 유형)
+1. 동명사 / to 부정사
+2. to 부정사
+3. 동명사</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -568,24 +568,24 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>offer 제안하다
-1. 동명사 / to 부정사
-2. 동명사
-3. to 부정사</t>
+          <t>offer : 제안하다 (목적어 유형)
+1. 동명사
+2. to 부정사
+3. 동명사 / to 부정사</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3, to 부정사</t>
+          <t>2, to 부정사</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>decide 결정하다
-1. 동명사 / to 부정사
-2. 동명사
+          <t>decide : 결정하다 (목적어 유형)
+1. 동명사
+2. 동명사 / to 부정사
 3. to 부정사</t>
         </is>
       </c>
@@ -598,9 +598,9 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>expect 기대하다
-1. 동명사 / to 부정사
-2. 동명사
+          <t>expect : 기대하다 (목적어 유형)
+1. 동명사
+2. 동명사 / to 부정사
 3. to 부정사</t>
         </is>
       </c>
@@ -613,40 +613,40 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>wish 바라다
-1. to 부정사
-2. 동명사 / to 부정사
+          <t>wish : 바라다 (목적어 유형)
+1. 동명사 / to 부정사
+2. to 부정사
 3. 동명사</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1, to 부정사</t>
+          <t>2, to 부정사</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>promise 약속하다
-1. 동명사 / to 부정사
-2. to 부정사
+          <t>promise : 약속하다 (목적어 유형)
+1. to 부정사
+2. 동명사 / to 부정사
 3. 동명사</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2, to 부정사</t>
+          <t>1, to 부정사</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ask 요청하다
-1. to 부정사
-2. 동명사
-3. 동명사 / to 부정사</t>
+          <t>ask : 요청하다 (목적어 유형)
+1. to 부정사
+2. 동명사 / to 부정사
+3. 동명사</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -658,22 +658,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>demand 요구하다
-1. 동명사
-2. 동명사 / to 부정사
-3. to 부정사</t>
+          <t>demand : 요구하다 (목적어 유형)
+1. 동명사 / to 부정사
+2. to 부정사
+3. 동명사</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3, to 부정사</t>
+          <t>2, to 부정사</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>learn 배우다 
+          <t>learn : 배우다 (목적어 유형)
 1. 동명사
 2. 동명사 / to 부정사
 3. to 부정사</t>
@@ -688,40 +688,40 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>plan 계획하다
-1. 동명사 / to 부정사
-2. to 부정사
-3. 동명사</t>
+          <t>plan : 계획하다 (목적어 유형)
+1. 동명사 / to 부정사
+2. 동명사
+3. to 부정사</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2, to 부정사</t>
+          <t>3, to 부정사</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>start 시작하다
-1. 동명사 / to 부정사
-2. to 부정사
-3. 동명사</t>
+          <t>start : 시작하다 (목적어 유형)
+1. 동명사
+2. to 부정사
+3. 동명사 / to 부정사</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1, 동명사 / to 부정사</t>
+          <t>3, 동명사 / to 부정사</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>like 좋아하다
-1. 동명사 / to 부정사
-2. to 부정사
-3. 동명사</t>
+          <t>like : 좋아하다 (목적어 유형)
+1. 동명사 / to 부정사
+2. 동명사
+3. to 부정사</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -733,7 +733,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>love 사랑하다
+          <t>love : 사랑하다 (목적어 유형)
 1. 동명사
 2. to 부정사
 3. 동명사 / to 부정사</t>
@@ -748,25 +748,25 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>begin 시작하다
-1. to 부정사
-2. 동명사 / to 부정사
-3. 동명사</t>
+          <t>begin : 시작하다 (목적어 유형)
+1. 동명사
+2. to 부정사
+3. 동명사 / to 부정사</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2, 동명사 / to 부정사</t>
+          <t>3, 동명사 / to 부정사</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>hate 싫어하다
-1. 동명사 / to 부정사
-2. to 부정사
-3. 동명사</t>
+          <t>hate : 싫어하다 (목적어 유형)
+1. 동명사 / to 부정사
+2. 동명사
+3. to 부정사</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -778,10 +778,10 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>propose 작정이다
-1. 동명사 / to 부정사
-2. 동명사
-3. to 부정사</t>
+          <t>propose : 작정이다 (목적어 유형)
+1. 동명사 / to 부정사
+2. to 부정사
+3. 동명사</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -793,22 +793,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>cease 그만두다
-1. 동명사 / to 부정사
-2. 동명사
-3. to 부정사</t>
+          <t>cease : 그만두다 (목적어 유형)
+1. to 부정사
+2. 동명사
+3. 동명사 / to 부정사</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1, 동명사 / to 부정사</t>
+          <t>3, 동명사 / to 부정사</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>continue 계속하다
+          <t>continue : 계속하다 (목적어 유형)
 1. to 부정사
 2. 동명사 / to 부정사
 3. 동명사</t>
@@ -823,9 +823,9 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>prefer 좋아하다
-1. 동명사
-2. to 부정사
+          <t>prefer : 좋아하다 (목적어 유형)
+1. to 부정사
+2. 동명사
 3. 동명사 / to 부정사</t>
         </is>
       </c>
@@ -838,10 +838,10 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>intend 의도하다
-1. to 부정사
-2. 동명사 / to 부정사
-3. 동명사</t>
+          <t>intend : 의도하다 (목적어 유형)
+1. 동명사
+2. 동명사 / to 부정사
+3. to 부정사</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -853,70 +853,70 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>mind 꺼리다
-1. to 부정사
-2. 동명사
+          <t>mind : 꺼리다 (목적어 유형)
+1. 동명사
+2. to 부정사
 3. 동명사 / to 부정사</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2, 동명사</t>
+          <t>1, 동명사</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>miss 그리워하다
-1. 동명사
-2. to 부정사
+          <t>miss : 그리워하다 (목적어 유형)
+1. to 부정사
+2. 동명사
 3. 동명사 / to 부정사</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1, 동명사</t>
+          <t>2, 동명사</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>enjoy 즐기다
-1. to 부정사
-2. 동명사
+          <t>enjoy : 즐기다 (목적어 유형)
+1. 동명사
+2. to 부정사
 3. 동명사 / to 부정사</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2, 동명사</t>
+          <t>1, 동명사</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>give up 포기하다
-1. 동명사
-2. 동명사 / to 부정사
-3. to 부정사</t>
+          <t>give up : 포기하다 (목적어 유형)
+1. to 부정사
+2. 동명사
+3. 동명사 / to 부정사</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1, 동명사</t>
+          <t>2, 동명사</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>appreciate 감사하다
-1. 동명사 / to 부정사
-2. 동명사
-3. to 부정사</t>
+          <t>appreciate : 감사하다 (목적어 유형)
+1. to 부정사
+2. 동명사
+3. 동명사 / to 부정사</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -928,40 +928,40 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>postpone 연기하다
-1. to 부정사
-2. 동명사
-3. 동명사 / to 부정사</t>
+          <t>postpone : 연기하다 (목적어 유형)
+1. 동명사
+2. 동명사 / to 부정사
+3. to 부정사</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2, 동명사</t>
+          <t>1, 동명사</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>put off 연기하다 
-1. 동명사
-2. 동명사 / to 부정사
-3. to 부정사</t>
+          <t>put off : 연기하다 (목적어 유형)
+1. 동명사 / to 부정사
+2. to 부정사
+3. 동명사</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1, 동명사</t>
+          <t>3, 동명사</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>stop 멈추다
-1. to 부정사
-2. 동명사
-3. 동명사 / to 부정사</t>
+          <t>stop : 멈추다 (목적어 유형)
+1. 동명사 / to 부정사
+2. 동명사
+3. to 부정사</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -973,82 +973,82 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>suggest 제안하다
-1. to 부정사
-2. 동명사
-3. 동명사 / to 부정사</t>
+          <t>suggest : 제안하다 (목적어 유형)
+1. 동명사
+2. 동명사 / to 부정사
+3. to 부정사</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2, 동명사</t>
+          <t>1, 동명사</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>consider 고려하다
-1. to 부정사
-2. 동명사
-3. 동명사 / to 부정사</t>
+          <t>consider : 고려하다 (목적어 유형)
+1. 동명사 / to 부정사
+2. to 부정사
+3. 동명사</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2, 동명사</t>
+          <t>3, 동명사</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>admit 인정하다
-1. 동명사
-2. 동명사 / to 부정사
+          <t>admit : 인정하다 (목적어 유형)
+1. 동명사 / to 부정사
+2. 동명사
 3. to 부정사</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1, 동명사</t>
+          <t>2, 동명사</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>avoid 피하다
-1. 동명사 / to 부정사
-2. 동명사
-3. to 부정사</t>
+          <t>avoid : 피하다 (목적어 유형)
+1. 동명사
+2. to 부정사
+3. 동명사 / to 부정사</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2, 동명사</t>
+          <t>1, 동명사</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>risk 무릅쓰다
-1. 동명사
-2. 동명사 / to 부정사
-3. to 부정사</t>
+          <t>risk : 무릅쓰다 (목적어 유형)
+1. to 부정사
+2. 동명사
+3. 동명사 / to 부정사</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1, 동명사</t>
+          <t>2, 동명사</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>recall 상기하다
+          <t>recall : 상기하다 (목적어 유형)
 1. 동명사 / to 부정사
 2. 동명사
 3. to 부정사</t>
@@ -1063,7 +1063,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>delay 미루다
+          <t>delay : 미루다 (목적어 유형)
 1. 동명사
 2. 동명사 / to 부정사
 3. to 부정사</t>
@@ -1078,10 +1078,10 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>quit 멈추다
-1. to 부정사
-2. 동명사
-3. 동명사 / to 부정사</t>
+          <t>quit : 멈추다 (목적어 유형)
+1. 동명사 / to 부정사
+2. 동명사
+3. to 부정사</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1093,37 +1093,37 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>finish 끝내다
-1. 동명사
-2. 동명사 / to 부정사
-3. to 부정사</t>
+          <t>finish : 끝내다 (목적어 유형)
+1. 동명사 / to 부정사
+2. to 부정사
+3. 동명사</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1, 동명사</t>
+          <t>3, 동명사</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>deny 부인하다
-1. 동명사 / to 부정사
-2. 동명사
-3. to 부정사</t>
+          <t>deny : 부인하다 (목적어 유형)
+1. to 부정사
+2. 동명사 / to 부정사
+3. 동명사</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2, 동명사</t>
+          <t>3, 동명사</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>resist 반대하다
+          <t>resist : 반대하다 (목적어 유형)
 1. to 부정사
 2. 동명사
 3. 동명사 / to 부정사</t>
@@ -1138,22 +1138,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>recommend 추천하다
-1. to 부정사
-2. 동명사
-3. 동명사 / to 부정사</t>
+          <t>recommend : 추천하다 (목적어 유형)
+1. to 부정사
+2. 동명사 / to 부정사
+3. 동명사</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2, 동명사</t>
+          <t>3, 동명사</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>involve 포함하다
+          <t>involve : 포함하다 (목적어 유형)
 1. 동명사
 2. to 부정사
 3. 동명사 / to 부정사</t>
